--- a/data_year/zb/科技/规模以上制造业企业产品和工艺创新情况/实现产品创新的规模以上制造业企业占全部规模以上制造业企业的比重/按登记注册类型分实现产品创新的规模以上制造业企业占全部规模以上制造业企业的比重.xlsx
+++ b/data_year/zb/科技/规模以上制造业企业产品和工艺创新情况/实现产品创新的规模以上制造业企业占全部规模以上制造业企业的比重/按登记注册类型分实现产品创新的规模以上制造业企业占全部规模以上制造业企业的比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
